--- a/Excel_Files/Stats_Populations/2.5_cm/673_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/673_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.000192915422079661</v>
+        <v>0.0003887976972831727</v>
       </c>
       <c r="D2">
-        <v>0.0004004059365997013</v>
+        <v>0.0006419097555531608</v>
       </c>
       <c r="E2">
-        <v>0.0001951453215110862</v>
+        <v>0.0003775560167371791</v>
       </c>
       <c r="F2">
-        <v>0.000186262457462246</v>
+        <v>0.0003759596096000178</v>
       </c>
       <c r="G2">
-        <v>0.0001010808778725394</v>
+        <v>0.0002379397061891702</v>
       </c>
       <c r="H2">
-        <v>0.0004004059365997013</v>
+        <v>0.0006419097555531608</v>
       </c>
       <c r="I2">
-        <v>0.0004252747794877531</v>
+        <v>0.0007375739013992497</v>
       </c>
       <c r="J2">
-        <v>0.0005764601557835654</v>
+        <v>0.0009070945700985043</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8.473035854254438E-05</v>
+        <v>0.000205840492902589</v>
       </c>
       <c r="D3">
-        <v>0.0002989035255352581</v>
+        <v>0.0005007558338489394</v>
       </c>
       <c r="E3">
-        <v>0.0001274404628085593</v>
+        <v>0.0002830462253296878</v>
       </c>
       <c r="F3">
-        <v>5.469225946159439E-05</v>
+        <v>0.0001442437109133547</v>
       </c>
       <c r="G3">
-        <v>5.282961842850818E-05</v>
+        <v>0.000140289188062777</v>
       </c>
       <c r="H3">
-        <v>0.0001397142415309653</v>
+        <v>0.0003016902605048942</v>
       </c>
       <c r="I3">
-        <v>0.0001214594087467311</v>
+        <v>0.0002747026372355323</v>
       </c>
       <c r="J3">
-        <v>4.897856764226652E-05</v>
+        <v>0.000131310324973534</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3.931260631007191E-05</v>
+        <v>0.0001098478470980264</v>
       </c>
       <c r="D4">
-        <v>0.0001121451672449555</v>
+        <v>0.0002524117778143239</v>
       </c>
       <c r="E4">
-        <v>7.807126152410076E-05</v>
+        <v>0.0001913349048412767</v>
       </c>
       <c r="F4">
-        <v>1.940053078297267E-05</v>
+        <v>6.163493418957697E-05</v>
       </c>
       <c r="G4">
-        <v>1.921736695429327E-05</v>
+        <v>6.118482540203851E-05</v>
       </c>
       <c r="H4">
-        <v>5.456943918070997E-05</v>
+        <v>0.0001432565491599204</v>
       </c>
       <c r="I4">
-        <v>8.753616981499472E-05</v>
+        <v>0.0002112244347604184</v>
       </c>
       <c r="J4">
-        <v>2.004232766626381E-05</v>
+        <v>6.198813855435601E-05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1.266958037456552E-06</v>
+        <v>6.366415767221991E-06</v>
       </c>
       <c r="D5">
-        <v>1.843593012256097E-06</v>
+        <v>8.740105599723191E-06</v>
       </c>
       <c r="E5">
-        <v>1.331009327994987E-06</v>
+        <v>6.673989954018331E-06</v>
       </c>
       <c r="F5">
-        <v>4.81347869107115E-07</v>
+        <v>2.855295101135014E-06</v>
       </c>
       <c r="G5">
-        <v>2.720653299329727E-07</v>
+        <v>1.770216478205976E-06</v>
       </c>
       <c r="H5">
-        <v>6.438730928990351E-07</v>
+        <v>3.587350769995216E-06</v>
       </c>
       <c r="I5">
-        <v>1.555886170192318E-06</v>
+        <v>7.564599164137634E-06</v>
       </c>
       <c r="J5">
-        <v>1.60362050511701E-06</v>
+        <v>7.572083117830697E-06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7.120692625119859E-07</v>
+        <v>3.990618160452905E-06</v>
       </c>
       <c r="D6">
-        <v>5.394894031926904E-07</v>
+        <v>3.183945000773709E-06</v>
       </c>
       <c r="E6">
-        <v>4.815225847190729E-07</v>
+        <v>2.869995482751973E-06</v>
       </c>
       <c r="F6">
-        <v>1.531450544227748E-07</v>
+        <v>1.111038184792717E-06</v>
       </c>
       <c r="G6">
-        <v>9.991535967889403E-08</v>
+        <v>7.653986657543144E-07</v>
       </c>
       <c r="H6">
-        <v>1.703849879715604E-07</v>
+        <v>1.198205845789259E-06</v>
       </c>
       <c r="I6">
-        <v>8.452102039822216E-07</v>
+        <v>4.438517435415267E-06</v>
       </c>
       <c r="J6">
-        <v>7.115324466346269E-07</v>
+        <v>3.847903120748838E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3.326525490912712E-07</v>
+        <v>2.057170645116181E-06</v>
       </c>
       <c r="D7">
-        <v>1.627876845723104E-07</v>
+        <v>1.163657648787864E-06</v>
       </c>
       <c r="E7">
-        <v>1.096842599534665E-07</v>
+        <v>8.586648040824059E-07</v>
       </c>
       <c r="F7">
-        <v>2.938503338582066E-08</v>
+        <v>2.784175863283193E-07</v>
       </c>
       <c r="G7">
-        <v>5.214317862837246E-08</v>
+        <v>4.509458234150035E-07</v>
       </c>
       <c r="H7">
-        <v>2.938503338582066E-08</v>
+        <v>2.784175863283193E-07</v>
       </c>
       <c r="I7">
-        <v>3.189720995489616E-07</v>
+        <v>2.022577853883022E-06</v>
       </c>
       <c r="J7">
-        <v>2.800101204723122E-07</v>
+        <v>1.761794290224541E-06</v>
       </c>
     </row>
   </sheetData>
